--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T06:49:20+00:00</t>
+    <t>2022-09-07T08:56:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T08:56:04+00:00</t>
+    <t>2022-09-07T09:25:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T09:25:06+00:00</t>
+    <t>2022-09-07T10:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T10:55:00+00:00</t>
+    <t>2022-09-07T11:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T11:02:51+00:00</t>
+    <t>2022-09-07T12:57:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T12:57:45+00:00</t>
+    <t>2022-09-07T13:25:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T13:25:36+00:00</t>
+    <t>2022-09-07T14:04:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="609">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T14:04:03+00:00</t>
+    <t>2022-09-09T00:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -297,7 +297,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -517,6 +517,10 @@
   </si>
   <si>
     <t>Observation.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3703,13 +3707,13 @@
         <v>81</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -3760,7 +3764,7 @@
         <v>81</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>79</v>
@@ -3784,7 +3788,7 @@
         <v>81</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>81</v>
@@ -3795,7 +3799,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3824,7 +3828,7 @@
         <v>138</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
         <v>140</v>
@@ -3865,19 +3869,19 @@
         <v>81</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -3901,7 +3905,7 @@
         <v>81</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>81</v>
@@ -3912,7 +3916,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3938,16 +3942,16 @@
         <v>111</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>81</v>
@@ -3972,13 +3976,13 @@
         <v>81</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>81</v>
@@ -3996,7 +4000,7 @@
         <v>81</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>79</v>
@@ -4020,7 +4024,7 @@
         <v>134</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>81</v>
@@ -4031,7 +4035,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -4054,19 +4058,19 @@
         <v>92</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>81</v>
@@ -4091,13 +4095,13 @@
         <v>81</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>81</v>
@@ -4115,7 +4119,7 @@
         <v>81</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>79</v>
@@ -4136,10 +4140,10 @@
         <v>81</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>81</v>
@@ -4150,7 +4154,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -4176,16 +4180,16 @@
         <v>105</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>81</v>
@@ -4198,7 +4202,7 @@
         <v>81</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>81</v>
@@ -4234,7 +4238,7 @@
         <v>81</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>79</v>
@@ -4255,10 +4259,10 @@
         <v>81</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>81</v>
@@ -4269,7 +4273,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -4292,16 +4296,16 @@
         <v>92</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -4315,7 +4319,7 @@
         <v>81</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>81</v>
@@ -4351,7 +4355,7 @@
         <v>81</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>79</v>
@@ -4372,10 +4376,10 @@
         <v>81</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>81</v>
@@ -4386,7 +4390,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -4409,13 +4413,13 @@
         <v>92</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -4466,7 +4470,7 @@
         <v>81</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
@@ -4487,10 +4491,10 @@
         <v>81</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>81</v>
@@ -4501,7 +4505,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4524,16 +4528,16 @@
         <v>92</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -4583,7 +4587,7 @@
         <v>81</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>79</v>
@@ -4604,10 +4608,10 @@
         <v>81</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>81</v>
@@ -4618,11 +4622,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4641,19 +4645,19 @@
         <v>92</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>81</v>
@@ -4702,7 +4706,7 @@
         <v>81</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>79</v>
@@ -4717,16 +4721,16 @@
         <v>103</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>81</v>
@@ -4737,11 +4741,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -4760,16 +4764,16 @@
         <v>92</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4819,7 +4823,7 @@
         <v>81</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>79</v>
@@ -4834,16 +4838,16 @@
         <v>103</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>81</v>
@@ -4854,7 +4858,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4880,16 +4884,16 @@
         <v>111</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>81</v>
@@ -4914,13 +4918,13 @@
         <v>81</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>81</v>
@@ -4938,7 +4942,7 @@
         <v>81</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>91</v>
@@ -4953,19 +4957,19 @@
         <v>103</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>81</v>
@@ -4973,7 +4977,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4996,19 +5000,19 @@
         <v>81</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>81</v>
@@ -5036,26 +5040,26 @@
         <v>115</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
@@ -5079,10 +5083,10 @@
         <v>81</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>81</v>
@@ -5090,7 +5094,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -5113,13 +5117,13 @@
         <v>81</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -5170,7 +5174,7 @@
         <v>81</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>79</v>
@@ -5194,7 +5198,7 @@
         <v>81</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>81</v>
@@ -5205,7 +5209,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -5234,7 +5238,7 @@
         <v>138</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>140</v>
@@ -5275,19 +5279,19 @@
         <v>81</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>79</v>
@@ -5311,7 +5315,7 @@
         <v>81</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>81</v>
@@ -5322,7 +5326,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5345,19 +5349,19 @@
         <v>92</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>81</v>
@@ -5406,7 +5410,7 @@
         <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>79</v>
@@ -5427,10 +5431,10 @@
         <v>81</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>81</v>
@@ -5441,7 +5445,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5464,19 +5468,19 @@
         <v>92</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>81</v>
@@ -5525,7 +5529,7 @@
         <v>81</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>79</v>
@@ -5546,10 +5550,10 @@
         <v>81</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>81</v>
@@ -5560,10 +5564,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>81</v>
@@ -5585,19 +5589,19 @@
         <v>81</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>81</v>
@@ -5607,7 +5611,7 @@
         <v>81</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>81</v>
@@ -5625,10 +5629,10 @@
         <v>115</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>81</v>
@@ -5646,7 +5650,7 @@
         <v>81</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -5670,10 +5674,10 @@
         <v>81</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>81</v>
@@ -5681,11 +5685,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5704,19 +5708,19 @@
         <v>92</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>81</v>
@@ -5744,10 +5748,10 @@
         <v>115</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>81</v>
@@ -5765,7 +5769,7 @@
         <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>91</v>
@@ -5780,27 +5784,27 @@
         <v>103</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5823,13 +5827,13 @@
         <v>81</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5880,7 +5884,7 @@
         <v>81</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>79</v>
@@ -5904,7 +5908,7 @@
         <v>81</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>81</v>
@@ -5915,7 +5919,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5944,7 +5948,7 @@
         <v>138</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M31" t="s" s="2">
         <v>140</v>
@@ -5985,19 +5989,19 @@
         <v>81</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC31" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>79</v>
@@ -6021,7 +6025,7 @@
         <v>81</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>81</v>
@@ -6032,7 +6036,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -6055,19 +6059,19 @@
         <v>92</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>81</v>
@@ -6116,7 +6120,7 @@
         <v>81</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>79</v>
@@ -6137,10 +6141,10 @@
         <v>81</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>81</v>
@@ -6151,7 +6155,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -6174,13 +6178,13 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -6231,7 +6235,7 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -6255,7 +6259,7 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -6266,7 +6270,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -6295,7 +6299,7 @@
         <v>138</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>140</v>
@@ -6336,19 +6340,19 @@
         <v>81</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -6372,7 +6376,7 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -6383,7 +6387,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -6409,16 +6413,16 @@
         <v>105</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="O35" t="s" s="2">
         <v>81</v>
@@ -6467,7 +6471,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -6488,10 +6492,10 @@
         <v>81</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>81</v>
@@ -6502,7 +6506,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6525,16 +6529,16 @@
         <v>92</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -6584,7 +6588,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6605,10 +6609,10 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6619,7 +6623,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6645,16 +6649,16 @@
         <v>111</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>81</v>
@@ -6703,7 +6707,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6724,10 +6728,10 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6738,7 +6742,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6761,19 +6765,19 @@
         <v>92</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6822,7 +6826,7 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6843,10 +6847,10 @@
         <v>81</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>81</v>
@@ -6857,7 +6861,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6880,19 +6884,19 @@
         <v>92</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6941,7 +6945,7 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6962,10 +6966,10 @@
         <v>81</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>81</v>
@@ -6976,7 +6980,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6999,19 +7003,19 @@
         <v>92</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>81</v>
@@ -7060,7 +7064,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -7081,10 +7085,10 @@
         <v>81</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -7095,7 +7099,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -7118,19 +7122,19 @@
         <v>92</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>81</v>
@@ -7179,7 +7183,7 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -7194,19 +7198,19 @@
         <v>103</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>81</v>
@@ -7214,7 +7218,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -7237,16 +7241,16 @@
         <v>92</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -7296,7 +7300,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -7317,13 +7321,13 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>81</v>
@@ -7331,11 +7335,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -7354,19 +7358,19 @@
         <v>92</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>81</v>
@@ -7415,7 +7419,7 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -7430,19 +7434,19 @@
         <v>103</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>81</v>
@@ -7450,11 +7454,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -7473,19 +7477,19 @@
         <v>92</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
@@ -7534,7 +7538,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -7549,19 +7553,19 @@
         <v>103</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>81</v>
@@ -7569,7 +7573,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7592,16 +7596,16 @@
         <v>92</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -7651,7 +7655,7 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7672,13 +7676,13 @@
         <v>81</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>81</v>
@@ -7686,7 +7690,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7709,19 +7713,19 @@
         <v>92</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O46" t="s" s="2">
         <v>81</v>
@@ -7770,7 +7774,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7785,19 +7789,19 @@
         <v>103</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>81</v>
@@ -7805,7 +7809,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7828,19 +7832,19 @@
         <v>92</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>81</v>
@@ -7889,7 +7893,7 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7898,7 +7902,7 @@
         <v>91</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>103</v>
@@ -7907,24 +7911,24 @@
         <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7947,19 +7951,19 @@
         <v>81</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>81</v>
@@ -7984,13 +7988,13 @@
         <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>81</v>
@@ -8008,7 +8012,7 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
@@ -8017,7 +8021,7 @@
         <v>91</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>103</v>
@@ -8032,7 +8036,7 @@
         <v>134</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
@@ -8043,11 +8047,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -8066,19 +8070,19 @@
         <v>81</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>81</v>
@@ -8103,13 +8107,13 @@
         <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>81</v>
@@ -8127,7 +8131,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -8145,24 +8149,24 @@
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -8185,19 +8189,19 @@
         <v>81</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>81</v>
@@ -8246,7 +8250,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -8267,10 +8271,10 @@
         <v>81</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
@@ -8281,7 +8285,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8304,13 +8308,13 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -8361,7 +8365,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -8385,7 +8389,7 @@
         <v>81</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -8396,7 +8400,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8425,7 +8429,7 @@
         <v>138</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>140</v>
@@ -8466,19 +8470,19 @@
         <v>81</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -8502,7 +8506,7 @@
         <v>81</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
@@ -8513,7 +8517,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8536,16 +8540,16 @@
         <v>92</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -8595,7 +8599,7 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -8619,7 +8623,7 @@
         <v>134</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8630,7 +8634,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8653,13 +8657,13 @@
         <v>92</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8710,7 +8714,7 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -8734,7 +8738,7 @@
         <v>134</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8745,7 +8749,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8768,16 +8772,16 @@
         <v>92</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8827,7 +8831,7 @@
         <v>81</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>91</v>
@@ -8851,7 +8855,7 @@
         <v>134</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
@@ -8862,7 +8866,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8885,16 +8889,16 @@
         <v>81</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8920,11 +8924,11 @@
         <v>81</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="X56" s="2"/>
       <c r="Y56" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>81</v>
@@ -8942,7 +8946,7 @@
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
@@ -8960,24 +8964,24 @@
         <v>81</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9000,19 +9004,19 @@
         <v>81</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>81</v>
@@ -9037,11 +9041,11 @@
         <v>81</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="X57" s="2"/>
       <c r="Y57" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>81</v>
@@ -9059,7 +9063,7 @@
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
@@ -9080,10 +9084,10 @@
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -9094,7 +9098,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9117,16 +9121,16 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9176,7 +9180,7 @@
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
@@ -9194,24 +9198,24 @@
         <v>81</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9234,16 +9238,16 @@
         <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9293,7 +9297,7 @@
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
@@ -9311,24 +9315,24 @@
         <v>81</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9351,19 +9355,19 @@
         <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>81</v>
@@ -9412,7 +9416,7 @@
         <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
@@ -9424,7 +9428,7 @@
         <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>81</v>
@@ -9433,10 +9437,10 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -9447,7 +9451,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9470,13 +9474,13 @@
         <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9527,7 +9531,7 @@
         <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -9551,7 +9555,7 @@
         <v>81</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
@@ -9562,7 +9566,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9591,7 +9595,7 @@
         <v>138</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>140</v>
@@ -9644,7 +9648,7 @@
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
@@ -9668,7 +9672,7 @@
         <v>81</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
@@ -9679,11 +9683,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9705,10 +9709,10 @@
         <v>137</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>140</v>
@@ -9763,7 +9767,7 @@
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
@@ -9798,7 +9802,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9821,16 +9825,16 @@
         <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9880,7 +9884,7 @@
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
@@ -9889,7 +9893,7 @@
         <v>91</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>103</v>
@@ -9901,10 +9905,10 @@
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
@@ -9915,7 +9919,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9938,16 +9942,16 @@
         <v>81</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -9997,7 +10001,7 @@
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>79</v>
@@ -10006,7 +10010,7 @@
         <v>91</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>103</v>
@@ -10018,10 +10022,10 @@
         <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>81</v>
@@ -10032,7 +10036,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10055,19 +10059,19 @@
         <v>81</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>81</v>
@@ -10095,10 +10099,10 @@
         <v>115</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>81</v>
@@ -10116,7 +10120,7 @@
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
@@ -10134,13 +10138,13 @@
         <v>81</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
@@ -10151,7 +10155,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10174,19 +10178,19 @@
         <v>81</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>81</v>
@@ -10211,13 +10215,13 @@
         <v>81</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>81</v>
@@ -10235,7 +10239,7 @@
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
@@ -10253,13 +10257,13 @@
         <v>81</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>81</v>
@@ -10270,7 +10274,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10293,19 +10297,19 @@
         <v>81</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>81</v>
@@ -10354,7 +10358,7 @@
         <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -10378,7 +10382,7 @@
         <v>81</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>81</v>
@@ -10389,7 +10393,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10412,16 +10416,16 @@
         <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
@@ -10471,7 +10475,7 @@
         <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -10492,10 +10496,10 @@
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
@@ -10506,7 +10510,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10529,16 +10533,16 @@
         <v>92</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10588,7 +10592,7 @@
         <v>81</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
@@ -10609,10 +10613,10 @@
         <v>81</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>81</v>
@@ -10623,7 +10627,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10646,16 +10650,16 @@
         <v>92</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10705,7 +10709,7 @@
         <v>81</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>79</v>
@@ -10726,10 +10730,10 @@
         <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>81</v>
@@ -10740,7 +10744,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10763,19 +10767,19 @@
         <v>92</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>81</v>
@@ -10824,7 +10828,7 @@
         <v>81</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>79</v>
@@ -10845,10 +10849,10 @@
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>81</v>
@@ -10859,7 +10863,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10882,13 +10886,13 @@
         <v>81</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>93</v>
+        <v>159</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10939,7 +10943,7 @@
         <v>81</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>79</v>
@@ -10963,7 +10967,7 @@
         <v>81</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>81</v>
@@ -10974,7 +10978,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11003,7 +11007,7 @@
         <v>138</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M74" t="s" s="2">
         <v>140</v>
@@ -11056,7 +11060,7 @@
         <v>81</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>79</v>
@@ -11080,7 +11084,7 @@
         <v>81</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>81</v>
@@ -11091,11 +11095,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -11117,10 +11121,10 @@
         <v>137</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>140</v>
@@ -11175,7 +11179,7 @@
         <v>81</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>79</v>
@@ -11210,7 +11214,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11233,19 +11237,19 @@
         <v>92</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>81</v>
@@ -11270,13 +11274,13 @@
         <v>81</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>81</v>
@@ -11294,7 +11298,7 @@
         <v>81</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>91</v>
@@ -11312,16 +11316,16 @@
         <v>81</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>81</v>
@@ -11329,7 +11333,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11352,19 +11356,19 @@
         <v>92</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>81</v>
@@ -11413,7 +11417,7 @@
         <v>81</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>79</v>
@@ -11431,24 +11435,24 @@
         <v>81</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11471,19 +11475,19 @@
         <v>81</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>81</v>
@@ -11508,13 +11512,13 @@
         <v>81</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>81</v>
@@ -11532,7 +11536,7 @@
         <v>81</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>79</v>
@@ -11541,7 +11545,7 @@
         <v>91</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>103</v>
@@ -11556,7 +11560,7 @@
         <v>134</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>81</v>
@@ -11567,11 +11571,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11590,19 +11594,19 @@
         <v>81</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>81</v>
@@ -11627,13 +11631,13 @@
         <v>81</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>81</v>
@@ -11651,7 +11655,7 @@
         <v>81</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>79</v>
@@ -11669,24 +11673,24 @@
         <v>81</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11712,16 +11716,16 @@
         <v>81</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>81</v>
@@ -11770,7 +11774,7 @@
         <v>81</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>79</v>
@@ -11791,10 +11795,10 @@
         <v>81</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>81</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T00:36:28+00:00</t>
+    <t>2022-09-09T12:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3031" uniqueCount="611">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-09T12:25:43+00:00</t>
+    <t>2022-09-12T18:58:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -482,7 +482,7 @@
 </t>
   </si>
   <si>
-    <t>Business Identifier for observation　Observationのためのビジネス識別子</t>
+    <t>当該検査項目に対して、施設内で割り振られる一意の識別子</t>
   </si>
   <si>
     <t>A unique identifier assigned to this observation.
@@ -1566,7 +1566,7 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>Observed body part　観察された身体部位</t>
+    <t>Bindingについてはユースケースに応じて各プロファイルで定義すること</t>
   </si>
   <si>
     <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).
@@ -1581,7 +1581,10 @@
     <t>example</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationBodySite_VS</t>
+    <t>Codes describing anatomical locations. May include laterality.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1615,7 +1618,10 @@
 場合により、測定方法は結果に影響を与える可能性があるため、結果を比較できるかどうかを判断したり、結果の重要性を判断したりするために使用される。</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_ObservationMethod_VS</t>
+    <t>Methods for simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-methods</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -8926,9 +8932,11 @@
       <c r="W56" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="X56" s="2"/>
+      <c r="X56" t="s" s="2">
+        <v>473</v>
+      </c>
       <c r="Y56" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>81</v>
@@ -8964,24 +8972,24 @@
         <v>81</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9007,16 +9015,16 @@
         <v>181</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>81</v>
@@ -9043,9 +9051,11 @@
       <c r="W57" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="X57" s="2"/>
+      <c r="X57" t="s" s="2">
+        <v>484</v>
+      </c>
       <c r="Y57" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>81</v>
@@ -9063,7 +9073,7 @@
         <v>81</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
@@ -9084,10 +9094,10 @@
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -9098,7 +9108,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9121,16 +9131,16 @@
         <v>81</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9180,7 +9190,7 @@
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
@@ -9198,24 +9208,24 @@
         <v>81</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9238,16 +9248,16 @@
         <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9297,7 +9307,7 @@
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
@@ -9315,24 +9325,24 @@
         <v>81</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9355,19 +9365,19 @@
         <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>81</v>
@@ -9416,7 +9426,7 @@
         <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
@@ -9428,7 +9438,7 @@
         <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>81</v>
@@ -9437,10 +9447,10 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -9451,7 +9461,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9566,7 +9576,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9683,11 +9693,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9709,10 +9719,10 @@
         <v>137</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>140</v>
@@ -9767,7 +9777,7 @@
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
@@ -9802,7 +9812,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9825,16 +9835,16 @@
         <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9884,7 +9894,7 @@
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
@@ -9893,7 +9903,7 @@
         <v>91</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>103</v>
@@ -9905,10 +9915,10 @@
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
@@ -9919,7 +9929,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9942,16 +9952,16 @@
         <v>81</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -10001,7 +10011,7 @@
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>79</v>
@@ -10010,7 +10020,7 @@
         <v>91</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>103</v>
@@ -10022,10 +10032,10 @@
         <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>81</v>
@@ -10036,7 +10046,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -10062,16 +10072,16 @@
         <v>181</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>81</v>
@@ -10099,10 +10109,10 @@
         <v>115</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>81</v>
@@ -10120,7 +10130,7 @@
         <v>81</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>79</v>
@@ -10138,10 +10148,10 @@
         <v>81</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>436</v>
@@ -10155,7 +10165,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10181,16 +10191,16 @@
         <v>181</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>81</v>
@@ -10218,10 +10228,10 @@
         <v>472</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>81</v>
@@ -10239,7 +10249,7 @@
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
@@ -10257,10 +10267,10 @@
         <v>81</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>436</v>
@@ -10274,7 +10284,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10297,19 +10307,19 @@
         <v>81</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>81</v>
@@ -10358,7 +10368,7 @@
         <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -10382,7 +10392,7 @@
         <v>81</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>81</v>
@@ -10393,7 +10403,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10419,10 +10429,10 @@
         <v>159</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>326</v>
@@ -10475,7 +10485,7 @@
         <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -10496,10 +10506,10 @@
         <v>81</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
@@ -10510,7 +10520,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10533,16 +10543,16 @@
         <v>92</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -10592,7 +10602,7 @@
         <v>81</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
@@ -10613,10 +10623,10 @@
         <v>81</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>81</v>
@@ -10627,7 +10637,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10650,16 +10660,16 @@
         <v>92</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10709,7 +10719,7 @@
         <v>81</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>79</v>
@@ -10730,10 +10740,10 @@
         <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>81</v>
@@ -10744,7 +10754,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10767,19 +10777,19 @@
         <v>92</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="O72" t="s" s="2">
         <v>81</v>
@@ -10828,7 +10838,7 @@
         <v>81</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>79</v>
@@ -10849,10 +10859,10 @@
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>81</v>
@@ -10863,7 +10873,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10978,7 +10988,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -11095,11 +11105,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -11121,10 +11131,10 @@
         <v>137</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="M75" t="s" s="2">
         <v>140</v>
@@ -11179,7 +11189,7 @@
         <v>81</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>79</v>
@@ -11214,7 +11224,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11240,13 +11250,13 @@
         <v>181</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>292</v>
@@ -11277,10 +11287,10 @@
         <v>472</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>81</v>
@@ -11298,7 +11308,7 @@
         <v>81</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>91</v>
@@ -11316,7 +11326,7 @@
         <v>81</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>297</v>
@@ -11333,7 +11343,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -11356,16 +11366,16 @@
         <v>92</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="N77" t="s" s="2">
         <v>411</v>
@@ -11417,7 +11427,7 @@
         <v>81</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>79</v>
@@ -11435,7 +11445,7 @@
         <v>81</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>414</v>
@@ -11452,7 +11462,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11478,13 +11488,13 @@
         <v>181</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>421</v>
@@ -11536,7 +11546,7 @@
         <v>81</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>79</v>
@@ -11571,7 +11581,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11597,16 +11607,16 @@
         <v>181</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>81</v>
@@ -11655,7 +11665,7 @@
         <v>81</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>79</v>
@@ -11690,7 +11700,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11716,16 +11726,16 @@
         <v>81</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>81</v>
@@ -11774,7 +11784,7 @@
         <v>81</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>79</v>
@@ -11795,10 +11805,10 @@
         <v>81</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>81</v>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T18:58:52+00:00</t>
+    <t>2022-09-12T21:58:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-12T21:58:47+00:00</t>
+    <t>2022-09-14T09:18:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:18:52+00:00</t>
+    <t>2022-09-14T09:38:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:38:33+00:00</t>
+    <t>2022-09-14T12:56:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3031" uniqueCount="611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3147" uniqueCount="624">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T12:56:24+00:00</t>
+    <t>2022-09-15T21:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1337,42 +1337,32 @@
 CodeableConceptstring</t>
   </si>
   <si>
-    <t>Actual result　実際の結果値</t>
+    <t>同じ検査項目でも、システム（施設）により、使うデータ型が異なる可能性あり。【詳細参照】</t>
   </si>
   <si>
     <t>The information determined as a result of making the observation, if the information has a simple value.
 検体検査の結果として決定された情報。</t>
   </si>
   <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](observation.html#notes) below.
-【JP Core仕様】valueQuantity　：OBX-2＝「NM」の時の OBX-5(結果値)、OBX-6(単位)
-valueQuantity.value　：OBX-5(結果値)
-valueQuantity.comparator　：SS-MIX2 検体検査結果メッセージでは未使用となっているデータ型だが、SN型のSN.1(比較演算子)が該当する。検査値の「0未満」の場合の「未満」などに相当するコードを設定。
-valueQuantity.unit　：OBX-6(単位) CWE.2 テキスト
-valueQuantity.system　：OBX-6(単位) CWE.3 コード体系
-HL7では「ISO+」だが、ローカルコード99zzzのHL7標準の”ISO+"が示すOID、ローカルコードの場合はOIDを別途取得必要？
-valueQuantity.code　：OBX-6(単位) CWE.1 識別子
-valueCodeableConcept　：OBX-2＝「CWE」の時の OBX-5(結果値)
-valueCodeableConcept.coding　：SS-MIXの場合、CWEは正規コード＋代替コードの2種類登録可能。
-valueCodeableConcept.coding.system　：CWE.3 or 6 コード体系。対象コードの OIDを設定
-valueCodeableConcept.coding.version　：CWE.7 コード体系バージョン ID
-valueCodeableConcept.coding.code　：CWE.1 or 4 識別子。対象コードシステムのコード
-valueCodeableConcept.coding.display　：CWE.2 or 5 テキスト。対象コードの名称
-valueCodeableConcept.coding.userselected　：未使用とする。
-valueCodeableConcept.text　：CWE.2 テキスト。coding.display と同じ。
-valueString　：OBX-2＝「ST」の時の OBX-5(結果値)
-以下のデータ型はSS-MIX2では未使用のため、未使用とした。今後の議論で使用の必要性が出れば復活させる。
+    <t>以下のデータ型はSS-MIX2では未使用のため、未使用とした。今後の議論で使用の必要性が出れば復活させる。
 valueBoolean
-valueInteger　：OBX-2＝「NW」の時の OBX-5(結果値)
+valueInteger　：検査結果値を整数値（Integer）で定義したい場合に指定する。ただし、valueQuantityで単位付き数値を示すので、通常は使わない。　SS-MIX2／HL7 V2.5→ OBX-2＝「NW」の時の OBX-5(結果値)
 valueRange
 valueRatio
 valueSampledData
-valueTime　：OBX-2＝「TM」の時の OBX-5(結果値)
-valueDateTime　：OBX-2＝「DT」の時の OBX-5(結果値)
+valueTime　：検査結果値が「時間」の場合、その時間を指定する。　SS-MIX2／HL7 V2.5→ OBX-2＝「TM」の時の OBX-5(結果値)
+valueDateTime　：検査結果値が「日時」の場合、その日時を指定する。　SS-MIX2／HL7 V2.5→ OBX-2＝「DT」の時の OBX-5(結果値)
 valuePeriod</t>
   </si>
   <si>
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -1389,6 +1379,50 @@
   </si>
   <si>
     <t>363714003 |Interprets|</t>
+  </si>
+  <si>
+    <t>valueQuantity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>検査結果が「数値」の場合、値、単位を設定する。　SS-MIX2／HL7 V2.5→ OBX-2＝「NM」の時の OBX-5(結果値)、OBX-6(単位)【詳細参照】</t>
+  </si>
+  <si>
+    <t>The information determined as a result of making the observation, if the information has a simple value.
+結果情報が単純な値である場合、observationを行った結果として決定された情報。</t>
+  </si>
+  <si>
+    <t>valueQuantity.value　：結果値（数値）を定義。　SS-MIX2／HL7 V2.5：OBX-5(結果値)
+valueQuantity.comparator　：QuantityComparator Value setから設定。　SS-MIX2／HL7 V2.5→ 検体検査結果メッセージでは未使用となっているデータ型だが、SN型のSN.1(比較演算子)が該当する。検査値の「0未満」の場合の「未満」などに相当するコードを設定。
+valueQuantity.unit　：.systemで示す単位のValue setの文字列を指定。　SS-MIX2／HL7 V2.5→ OBX-6(単位) CWE.2 テキスト
+valueQuantity.system　：単位のValue set名を指定。　SS-MIX2／HL7 V2.5→ OBX-6(単位) CWE.3 コード体系 HL7では「ISO+」だが、ローカルコード99zzzのHL7標準の「ISO+」が示すOID、ローカルコードの場合はOIDを別途取得必要
+valueQuantity.code　：.systemで示す単位のValue setのコードを指定。　SS-MIX2／HL7 V2.5→ OBX-6(単位) CWE.1 識別子</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>検査結果が「コード値」の場合、コード、テキスト、コードのValue setを定義する。　SS-MIX2／HL7 V2.5→ OBX-2＝「CWE」の時の OBX-5(結果値)【詳細参照】</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept.coding　：ローカルコードと国際標準コードなど複数指定できる。　SS-MIX2／HL7 V2.5→ CWEは正規コード＋代替コードの2種類登録可能。
+valueCodeableConcept.coding.system　：対象のValue set名を指定。　SS-MIX2／HL7 V2.5→ CWE.3 or 6 コード体系。対象コードの OIDを設定
+valueCodeableConcept.coding.version　：対象のValue setのバージョンを指定。　SS-MIX2／HL7 V2.5→ CWE.7 コード体系バージョン ID valueCodeableConcept.coding.code　：対象のValue setのコードを指定。　SS-MIX2／HL7 V2.5→ CWE.1 or 4 識別子。対象コードシステムのコード
+valueCodeableConcept.coding.display　：対象のValue setのテキストを指定。　SS-MIX2／HL7 V2.5→ CWE.2 or 5 テキスト。対象コードの名称
+valueCodeableConcept.coding.userselected　：未使用。
+valueCodeableConcept.text　：コードが示す意味を指定する。通常は.coding.displayの値を指定するが、複数ある場合は適宜編集すること。　SS-MIX2／HL7 V2.5→ CWE.2 テキスト。coding.display と同じ。</t>
+  </si>
+  <si>
+    <t>valueString</t>
+  </si>
+  <si>
+    <t>検査結果値が「文字列」の場合、その文字列を指定する。SS-MIX2／HL7 V2.5→ OBX-2＝「ST」の時の OBX-5(結果値)</t>
+  </si>
+  <si>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -2339,7 +2373,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO80"/>
+  <dimension ref="A1:AO83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2349,7 +2383,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -7887,16 +7921,14 @@
         <v>81</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>81</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="AB47" s="2"/>
       <c r="AC47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>81</v>
+        <v>413</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>406</v>
@@ -7908,7 +7940,7 @@
         <v>91</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>103</v>
@@ -7917,26 +7949,28 @@
         <v>81</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>419</v>
+      </c>
       <c r="C48" t="s" s="2">
         <v>81</v>
       </c>
@@ -7954,22 +7988,22 @@
         <v>81</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>181</v>
+        <v>420</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>81</v>
@@ -7994,13 +8028,13 @@
         <v>81</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>422</v>
+        <v>81</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>423</v>
+        <v>81</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>81</v>
@@ -8018,7 +8052,7 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
@@ -8027,7 +8061,7 @@
         <v>91</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>424</v>
+        <v>414</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>103</v>
@@ -8036,35 +8070,37 @@
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>81</v>
+        <v>415</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>134</v>
+        <v>416</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>81</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>424</v>
+      </c>
       <c r="C49" t="s" s="2">
-        <v>427</v>
+        <v>81</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>81</v>
@@ -8073,22 +8109,22 @@
         <v>81</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>181</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>81</v>
@@ -8113,13 +8149,13 @@
         <v>81</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>432</v>
+        <v>81</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>433</v>
+        <v>81</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>81</v>
@@ -8137,16 +8173,16 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>426</v>
+        <v>406</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>414</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>103</v>
@@ -8155,26 +8191,28 @@
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>435</v>
+        <v>416</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>436</v>
+        <v>417</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>437</v>
+        <v>418</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>427</v>
+      </c>
       <c r="C50" t="s" s="2">
         <v>81</v>
       </c>
@@ -8183,7 +8221,7 @@
         <v>79</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>81</v>
@@ -8192,22 +8230,22 @@
         <v>81</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>439</v>
+        <v>159</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>443</v>
+        <v>411</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>81</v>
@@ -8256,16 +8294,16 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>438</v>
+        <v>406</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>414</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>103</v>
@@ -8274,24 +8312,24 @@
         <v>81</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>81</v>
+        <v>415</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>81</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -8314,16 +8352,20 @@
         <v>81</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>160</v>
+        <v>431</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
+        <v>432</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>434</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>81</v>
       </c>
@@ -8347,13 +8389,13 @@
         <v>81</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>81</v>
+        <v>435</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>81</v>
+        <v>436</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>81</v>
@@ -8371,7 +8413,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>162</v>
+        <v>430</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -8380,10 +8422,10 @@
         <v>91</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>81</v>
+        <v>437</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>81</v>
@@ -8392,10 +8434,10 @@
         <v>81</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>163</v>
+        <v>438</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>81</v>
@@ -8406,11 +8448,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>136</v>
+        <v>440</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -8429,18 +8471,20 @@
         <v>81</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>138</v>
+        <v>441</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>165</v>
+        <v>442</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>81</v>
       </c>
@@ -8464,31 +8508,31 @@
         <v>81</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>81</v>
+        <v>186</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>81</v>
+        <v>445</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>81</v>
+        <v>446</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>166</v>
+        <v>81</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>168</v>
+        <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>169</v>
+        <v>439</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>
@@ -8500,30 +8544,30 @@
         <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>81</v>
+        <v>447</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>81</v>
+        <v>448</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>163</v>
+        <v>449</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>81</v>
+        <v>450</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8534,7 +8578,7 @@
         <v>79</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>81</v>
@@ -8543,21 +8587,23 @@
         <v>81</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="N53" s="2"/>
+        <v>455</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>456</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>81</v>
       </c>
@@ -8605,13 +8651,13 @@
         <v>81</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>81</v>
@@ -8626,10 +8672,10 @@
         <v>81</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>134</v>
+        <v>457</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>81</v>
@@ -8640,7 +8686,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8660,16 +8706,16 @@
         <v>81</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>456</v>
+        <v>159</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>457</v>
+        <v>160</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>458</v>
+        <v>161</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8720,7 +8766,7 @@
         <v>81</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>459</v>
+        <v>162</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>79</v>
@@ -8732,7 +8778,7 @@
         <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>81</v>
@@ -8741,10 +8787,10 @@
         <v>81</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>460</v>
+        <v>163</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>81</v>
@@ -8755,18 +8801,18 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>81</v>
@@ -8775,19 +8821,19 @@
         <v>81</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>462</v>
+        <v>137</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>463</v>
+        <v>138</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>464</v>
+        <v>165</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>465</v>
+        <v>140</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8825,31 +8871,31 @@
         <v>81</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>466</v>
+        <v>169</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>81</v>
@@ -8858,10 +8904,10 @@
         <v>81</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>467</v>
+        <v>163</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>81</v>
@@ -8872,7 +8918,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8892,19 +8938,19 @@
         <v>81</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>181</v>
+        <v>462</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8930,13 +8976,13 @@
         <v>81</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>472</v>
+        <v>81</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>473</v>
+        <v>81</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>474</v>
+        <v>81</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>81</v>
@@ -8954,7 +9000,7 @@
         <v>81</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>79</v>
@@ -8972,24 +9018,24 @@
         <v>81</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>475</v>
+        <v>81</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>476</v>
+        <v>134</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>478</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>479</v>
+        <v>468</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -9009,23 +9055,19 @@
         <v>81</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>181</v>
+        <v>469</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>483</v>
-      </c>
+        <v>471</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>81</v>
       </c>
@@ -9049,31 +9091,31 @@
         <v>81</v>
       </c>
       <c r="W57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE57" t="s" s="2">
         <v>472</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>79</v>
@@ -9094,10 +9136,10 @@
         <v>81</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>486</v>
+        <v>134</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>81</v>
@@ -9108,7 +9150,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -9128,19 +9170,19 @@
         <v>81</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9190,10 +9232,10 @@
         <v>81</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>91</v>
@@ -9208,24 +9250,24 @@
         <v>81</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>493</v>
+        <v>81</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>494</v>
+        <v>134</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>496</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9248,16 +9290,16 @@
         <v>81</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>498</v>
+        <v>181</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>499</v>
+        <v>482</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>501</v>
+        <v>484</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9283,13 +9325,13 @@
         <v>81</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>81</v>
+        <v>485</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>81</v>
+        <v>486</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>81</v>
+        <v>487</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>81</v>
@@ -9307,7 +9349,7 @@
         <v>81</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>79</v>
@@ -9325,24 +9367,24 @@
         <v>81</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>505</v>
+        <v>491</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9353,7 +9395,7 @@
         <v>79</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>81</v>
@@ -9365,19 +9407,19 @@
         <v>81</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>507</v>
+        <v>181</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>81</v>
@@ -9402,13 +9444,13 @@
         <v>81</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>81</v>
+        <v>485</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>81</v>
+        <v>497</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>81</v>
+        <v>498</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>81</v>
@@ -9426,19 +9468,19 @@
         <v>81</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>512</v>
+        <v>103</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>81</v>
@@ -9447,10 +9489,10 @@
         <v>81</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>81</v>
@@ -9461,7 +9503,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9469,7 +9511,7 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>91</v>
@@ -9484,15 +9526,17 @@
         <v>81</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>159</v>
+        <v>502</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>160</v>
+        <v>503</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>504</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>81</v>
@@ -9541,7 +9585,7 @@
         <v>81</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>162</v>
+        <v>501</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>79</v>
@@ -9553,41 +9597,41 @@
         <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>81</v>
+        <v>506</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>81</v>
+        <v>507</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>163</v>
+        <v>508</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>81</v>
+        <v>509</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>81</v>
@@ -9599,16 +9643,16 @@
         <v>81</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>137</v>
+        <v>511</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>138</v>
+        <v>512</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>165</v>
+        <v>513</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>140</v>
+        <v>514</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
@@ -9658,46 +9702,46 @@
         <v>81</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>169</v>
+        <v>510</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>81</v>
+        <v>515</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>81</v>
+        <v>516</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>163</v>
+        <v>517</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>81</v>
+        <v>518</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>518</v>
+        <v>81</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9710,25 +9754,25 @@
         <v>81</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>137</v>
+        <v>520</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>140</v>
+        <v>523</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>146</v>
+        <v>524</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>81</v>
@@ -9777,7 +9821,7 @@
         <v>81</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
@@ -9789,7 +9833,7 @@
         <v>81</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>142</v>
+        <v>525</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>81</v>
@@ -9798,10 +9842,10 @@
         <v>81</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>81</v>
+        <v>526</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>134</v>
+        <v>527</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>81</v>
@@ -9812,7 +9856,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9835,17 +9879,15 @@
         <v>81</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>523</v>
+        <v>159</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>524</v>
+        <v>160</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>526</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>81</v>
@@ -9894,7 +9936,7 @@
         <v>81</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>522</v>
+        <v>162</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>79</v>
@@ -9903,10 +9945,10 @@
         <v>91</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>527</v>
+        <v>81</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>81</v>
@@ -9915,10 +9957,10 @@
         <v>81</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>528</v>
+        <v>81</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>529</v>
+        <v>163</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>81</v>
@@ -9929,18 +9971,18 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>81</v>
@@ -9952,16 +9994,16 @@
         <v>81</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>523</v>
+        <v>137</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>531</v>
+        <v>138</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>532</v>
+        <v>165</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>526</v>
+        <v>140</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -10011,19 +10053,19 @@
         <v>81</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>530</v>
+        <v>169</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>527</v>
+        <v>81</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>81</v>
@@ -10032,10 +10074,10 @@
         <v>81</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>528</v>
+        <v>81</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>533</v>
+        <v>163</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>81</v>
@@ -10046,42 +10088,42 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>81</v>
+        <v>531</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>537</v>
+        <v>140</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>538</v>
+        <v>146</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>81</v>
@@ -10106,13 +10148,13 @@
         <v>81</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>539</v>
+        <v>81</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>540</v>
+        <v>81</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>81</v>
@@ -10136,25 +10178,25 @@
         <v>79</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>541</v>
+        <v>81</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>542</v>
+        <v>81</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>436</v>
+        <v>134</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>81</v>
@@ -10165,7 +10207,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -10176,7 +10218,7 @@
         <v>79</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>81</v>
@@ -10188,20 +10230,18 @@
         <v>81</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>181</v>
+        <v>536</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>547</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>81</v>
       </c>
@@ -10225,13 +10265,13 @@
         <v>81</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>472</v>
+        <v>81</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>548</v>
+        <v>81</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>549</v>
+        <v>81</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>81</v>
@@ -10249,16 +10289,16 @@
         <v>81</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>81</v>
+        <v>540</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>103</v>
@@ -10267,13 +10307,13 @@
         <v>81</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>541</v>
       </c>
-      <c r="AL67" t="s" s="2">
+      <c r="AM67" t="s" s="2">
         <v>542</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>436</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>81</v>
@@ -10284,7 +10324,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10307,20 +10347,18 @@
         <v>81</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>555</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>81</v>
       </c>
@@ -10368,7 +10406,7 @@
         <v>81</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -10377,7 +10415,7 @@
         <v>91</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>81</v>
+        <v>540</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>103</v>
@@ -10389,10 +10427,10 @@
         <v>81</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>81</v>
+        <v>541</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>81</v>
@@ -10403,7 +10441,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10426,18 +10464,20 @@
         <v>81</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>159</v>
+        <v>181</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>550</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>551</v>
+      </c>
       <c r="O69" t="s" s="2">
         <v>81</v>
       </c>
@@ -10461,13 +10501,13 @@
         <v>81</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>81</v>
+        <v>552</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>81</v>
+        <v>553</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>81</v>
@@ -10485,7 +10525,7 @@
         <v>81</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>79</v>
@@ -10503,13 +10543,13 @@
         <v>81</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>81</v>
+        <v>554</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>528</v>
+        <v>555</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>560</v>
+        <v>449</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>81</v>
@@ -10520,7 +10560,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10540,21 +10580,23 @@
         <v>81</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>562</v>
+        <v>181</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>565</v>
-      </c>
-      <c r="N70" s="2"/>
+        <v>559</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>560</v>
+      </c>
       <c r="O70" t="s" s="2">
         <v>81</v>
       </c>
@@ -10578,13 +10620,13 @@
         <v>81</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>81</v>
+        <v>485</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>81</v>
+        <v>561</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>81</v>
+        <v>562</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>81</v>
@@ -10602,7 +10644,7 @@
         <v>81</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>79</v>
@@ -10620,13 +10662,13 @@
         <v>81</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>81</v>
+        <v>554</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>567</v>
+        <v>449</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>81</v>
@@ -10637,7 +10679,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10648,7 +10690,7 @@
         <v>79</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>81</v>
@@ -10657,21 +10699,23 @@
         <v>81</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>567</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>568</v>
+      </c>
       <c r="O71" t="s" s="2">
         <v>81</v>
       </c>
@@ -10719,13 +10763,13 @@
         <v>81</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>81</v>
@@ -10740,10 +10784,10 @@
         <v>81</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>566</v>
+        <v>81</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>81</v>
@@ -10754,7 +10798,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10765,7 +10809,7 @@
         <v>79</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>81</v>
@@ -10774,23 +10818,21 @@
         <v>81</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>507</v>
+        <v>159</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>578</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>81</v>
       </c>
@@ -10838,13 +10880,13 @@
         <v>81</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>81</v>
@@ -10859,10 +10901,10 @@
         <v>81</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>579</v>
+        <v>541</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>81</v>
@@ -10873,7 +10915,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10884,7 +10926,7 @@
         <v>79</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>81</v>
@@ -10893,18 +10935,20 @@
         <v>81</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>159</v>
+        <v>575</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>160</v>
+        <v>576</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>577</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>578</v>
+      </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>81</v>
@@ -10953,19 +10997,19 @@
         <v>81</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>162</v>
+        <v>574</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="AJ73" t="s" s="2">
         <v>81</v>
@@ -10974,10 +11018,10 @@
         <v>81</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>81</v>
+        <v>579</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>163</v>
+        <v>580</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>81</v>
@@ -10988,11 +11032,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>136</v>
+        <v>81</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -11008,19 +11052,19 @@
         <v>81</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>137</v>
+        <v>582</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>138</v>
+        <v>583</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>165</v>
+        <v>584</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>140</v>
+        <v>585</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -11070,7 +11114,7 @@
         <v>81</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>169</v>
+        <v>581</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>79</v>
@@ -11082,7 +11126,7 @@
         <v>81</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ74" t="s" s="2">
         <v>81</v>
@@ -11091,10 +11135,10 @@
         <v>81</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>81</v>
+        <v>579</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>163</v>
+        <v>586</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>81</v>
@@ -11105,11 +11149,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
-        <v>518</v>
+        <v>81</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -11122,25 +11166,25 @@
         <v>81</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>137</v>
+        <v>520</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>519</v>
+        <v>588</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>520</v>
+        <v>589</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>140</v>
+        <v>590</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>146</v>
+        <v>591</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>81</v>
@@ -11189,7 +11233,7 @@
         <v>81</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>521</v>
+        <v>587</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>79</v>
@@ -11201,7 +11245,7 @@
         <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>142</v>
+        <v>103</v>
       </c>
       <c r="AJ75" t="s" s="2">
         <v>81</v>
@@ -11210,10 +11254,10 @@
         <v>81</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>81</v>
+        <v>592</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>134</v>
+        <v>593</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>81</v>
@@ -11224,7 +11268,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11232,7 +11276,7 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>91</v>
@@ -11244,23 +11288,19 @@
         <v>81</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>585</v>
+        <v>160</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>586</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>587</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>81</v>
       </c>
@@ -11284,13 +11324,13 @@
         <v>81</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>472</v>
+        <v>81</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>588</v>
+        <v>81</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>589</v>
+        <v>81</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>81</v>
@@ -11308,10 +11348,10 @@
         <v>81</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>584</v>
+        <v>162</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>91</v>
@@ -11320,22 +11360,22 @@
         <v>81</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>590</v>
+        <v>81</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>297</v>
+        <v>81</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>298</v>
+        <v>163</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>299</v>
+        <v>81</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>81</v>
@@ -11343,18 +11383,18 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>81</v>
@@ -11363,23 +11403,21 @@
         <v>81</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>592</v>
+        <v>137</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>593</v>
+        <v>138</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>594</v>
+        <v>165</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>595</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>81</v>
       </c>
@@ -11427,77 +11465,77 @@
         <v>81</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>591</v>
+        <v>169</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>596</v>
+        <v>81</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>414</v>
+        <v>81</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>415</v>
+        <v>163</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>416</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>81</v>
+        <v>531</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>598</v>
+        <v>532</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>599</v>
+        <v>533</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>600</v>
+        <v>140</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>421</v>
+        <v>146</v>
       </c>
       <c r="O78" t="s" s="2">
         <v>81</v>
@@ -11522,13 +11560,13 @@
         <v>81</v>
       </c>
       <c r="W78" t="s" s="2">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>422</v>
+        <v>81</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>423</v>
+        <v>81</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>81</v>
@@ -11546,19 +11584,19 @@
         <v>81</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>597</v>
+        <v>534</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>424</v>
+        <v>81</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="AJ78" t="s" s="2">
         <v>81</v>
@@ -11567,10 +11605,10 @@
         <v>81</v>
       </c>
       <c r="AL78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AM78" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>425</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>81</v>
@@ -11581,18 +11619,18 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>427</v>
+        <v>81</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>81</v>
@@ -11601,22 +11639,22 @@
         <v>81</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>181</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>605</v>
+        <v>292</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>81</v>
@@ -11641,13 +11679,13 @@
         <v>81</v>
       </c>
       <c r="W79" t="s" s="2">
-        <v>186</v>
+        <v>485</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>432</v>
+        <v>601</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>433</v>
+        <v>602</v>
       </c>
       <c r="Z79" t="s" s="2">
         <v>81</v>
@@ -11665,13 +11703,13 @@
         <v>81</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>81</v>
@@ -11683,24 +11721,24 @@
         <v>81</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>434</v>
+        <v>603</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>435</v>
+        <v>297</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>436</v>
+        <v>298</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c r="AO79" t="s" s="2">
-        <v>437</v>
+        <v>81</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11711,7 +11749,7 @@
         <v>79</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>81</v>
@@ -11720,22 +11758,22 @@
         <v>81</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>81</v>
+        <v>605</v>
       </c>
       <c r="K80" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="L80" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="L80" t="s" s="2">
+      <c r="M80" t="s" s="2">
         <v>608</v>
       </c>
-      <c r="M80" t="s" s="2">
-        <v>609</v>
-      </c>
       <c r="N80" t="s" s="2">
-        <v>610</v>
+        <v>411</v>
       </c>
       <c r="O80" t="s" s="2">
         <v>81</v>
@@ -11784,13 +11822,13 @@
         <v>81</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>81</v>
@@ -11802,18 +11840,375 @@
         <v>81</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>81</v>
+        <v>609</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>513</v>
+        <v>416</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>514</v>
+        <v>417</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AO80" t="s" s="2">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="O81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="O82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="O83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AO83" t="s" s="2">
         <v>81</v>
       </c>
     </row>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T21:18:29+00:00</t>
+    <t>2022-09-15T22:47:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-15T22:47:08+00:00</t>
+    <t>2022-09-16T00:49:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:49:51+00:00</t>
+    <t>2022-09-16T00:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T00:58:14+00:00</t>
+    <t>2022-09-16T01:34:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T01:34:43+00:00</t>
+    <t>2022-09-16T02:51:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T02:51:37+00:00</t>
+    <t>2022-09-16T03:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T03:47:56+00:00</t>
+    <t>2022-09-16T04:34:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T04:34:30+00:00</t>
+    <t>2022-09-16T06:11:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T06:11:11+00:00</t>
+    <t>2022-09-16T07:34:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-observation-labresult.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T07:34:37+00:00</t>
+    <t>2022-09-16T07:48:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
